--- a/exp6_truthtable.xlsx
+++ b/exp6_truthtable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Learn\24Summer\Lxb\StarryCPU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D721D2-849C-4843-AB71-16802A4FA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,586 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h0];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5‘rk+5’rj+5‘rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tem=GR[rj]+GR[rk]
+GR[rd]=tem[31:0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.w  rd,rj,rk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h10];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tem=GR[rj]-GR[rk]
+GR[rd]=tem[31:0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub.w  rd,rj,rk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h100];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5‘rk+5’rj+5‘rd</t>
+  </si>
+  <si>
+    <t>GR[rd] = (signed(GR[rj]) &lt; signed(GR[rk])) ? 1 : 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt  rd,rj,rk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h101];</t>
+  </si>
+  <si>
+    <t>GR[rd] = (unsigned(GR[rj]) &lt; unsigned(GR[rk])) ? 1 : 0</t>
+  </si>
+  <si>
+    <t>sltu  rd,rj,rk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1000];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GR[rd] = ~(GR[rj] | GR[rk]) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nor rd, rj, rk </t>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1001];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR[rd] = GR[rj] &amp; GR[rk]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and rd, rj, rk</t>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1010];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GR[rd] = GR[rj] | GR[rk] </t>
+  </si>
+  <si>
+    <t>or rd, rj, rk</t>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1011];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR[rd] = GR[rj] ^ GR[rk] </t>
+  </si>
+  <si>
+    <t>xor rd, rj, rk</t>
+  </si>
+  <si>
+    <t>slli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h1] &amp; op_21_20_d[2'h0] &amp; op_19_15_d[5'h1];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5‘ui+5’rj+5‘rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slli.w rd, rj, ui5</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srli.w rd, rj, ui5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h10001];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slai.w rd, rj, ui5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h1010]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12‘si+5’rj+5‘rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi.w rd,rj,si12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">op_31_26_d[6'h001010] &amp; op_25_22_d[4'h0010] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaddr = GR[rj] + SignExtend(si12, 32) 
+AddressComplianceCheck(vaddr) paddr = AddressTranslation(vaddr)
+ word = MemoryLoad(paddr, WORD) 
+GR[rd] = word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld.w rd, rj, si12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h001010] &amp; op_25_22_d[4'h0110]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaddr = GR[rj] + SignExtend(si12, 32)
+ AddressComplianceCheck(vaddr) 
+paddr = AddressTranslation(vaddr)
+ MemoryStore(GR[rd][31:0], paddr, WORD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st.w rd, rj, si12</t>
+  </si>
+  <si>
+    <t>jirl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">op_31_26_d[6'h010011] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offs[15:0]+5’rj+5‘rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR[rd] = PC + 4 
+PC = GR[rj] + SignExtend({offs16, 2'b0}, 32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jirl rd, rj, offs16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h010100]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offs[15:0]+offs[25:16]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC = PC + SignExtend({offs26, 2'b0}, 32)</t>
+  </si>
+  <si>
+    <t>b offs26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h010101]</t>
+  </si>
+  <si>
+    <t>GR[1] = PC + 4 
+PC = PC + SignExtend({offs26, 2'b0}, 32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl offs26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h010110]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if GR[rj]==GR[rd] : 
+PC = PC + SignExtend({offs16, 2'b0}, 32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq rj, rd, offs16</t>
+  </si>
+  <si>
+    <t>bne</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h010111]</t>
+  </si>
+  <si>
+    <t>if GR[rj]！=GR[rd] : 
+PC = PC + SignExtend({offs16, 2'b0}, 33)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bne rj, rd, offs16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu12i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_31_26_d[6'h000101]&amp;op_31_d[1'h0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20'si+5‘rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR[rd]={si20,12'b0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu12i.w rd,si20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B有符号字节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H有符号半字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W有符号字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加U无符号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu_op</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_op</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>src1_is_pc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>src2_is_imm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_from_mem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dst_is_r1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gr_we</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_reg_is_rd</t>
+  </si>
+  <si>
+    <t>need_si20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>src2_is_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给link用的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tmp = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SLL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(GR[rj], ui5) 
+GR[rd] = tmp[31:0]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tmp = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SRL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(GR[rj], ui5) 
+GR[rd] = tmp[31:1]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tmp = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(GR[rj], ui5) 
+GR[rd] = tmp[31:2]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tmp = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SLL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(GR[rj], ui5) 
+GR[rd] = tmp[31:3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>服务lu12i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.9499999999999993"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.45"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.9499999999999993"/>
+      <color rgb="FF0000FF"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +622,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +956,862 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="76.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" ht="36" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exp6_truthtable.xlsx
+++ b/exp6_truthtable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Learn\24Summer\Lxb\StarryCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D721D2-849C-4843-AB71-16802A4FA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DF288-1B26-4A28-8487-5B83F1794639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,64 +28,64 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h0];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5‘rk+5’rj+5‘rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tem=GR[rj]+GR[rk]
 GR[rd]=tem[31:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>add.w  rd,rj,rk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h10];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tem=GR[rj]-GR[rk]
 GR[rd]=tem[31:0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sub.w  rd,rj,rk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>slt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h100];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5‘rk+5’rj+5‘rd</t>
   </si>
   <si>
     <t>GR[rd] = (signed(GR[rj]) &lt; signed(GR[rk])) ? 1 : 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>slt  rd,rj,rk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sltu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h101];</t>
@@ -95,45 +95,45 @@
   </si>
   <si>
     <t>sltu  rd,rj,rk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1000];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GR[rd] = ~(GR[rj] | GR[rk]) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">nor rd, rj, rk </t>
   </si>
   <si>
     <t>and</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1001];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GR[rd] = GR[rj] &amp; GR[rk]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>and rd, rj, rk</t>
   </si>
   <si>
     <t>or</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1010];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GR[rd] = GR[rj] | GR[rk] </t>
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>xor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h1011];</t>
@@ -156,143 +156,143 @@
   </si>
   <si>
     <t>slli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h1] &amp; op_21_20_d[2'h0] &amp; op_19_15_d[5'h1];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5‘ui+5’rj+5‘rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>slli.w rd, rj, ui5</t>
   </si>
   <si>
     <t>逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>srli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>srli.w rd, rj, ui5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>srai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h0] &amp; op_21_20_d[2'h1] &amp; op_19_15_d[5'h10001];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>slai.w rd, rj, ui5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>算数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h00] &amp; op_25_22_d[4'h1010]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12‘si+5’rj+5‘rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addi.w rd,rj,si12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ld</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">op_31_26_d[6'h001010] &amp; op_25_22_d[4'h0010] </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vaddr = GR[rj] + SignExtend(si12, 32) 
 AddressComplianceCheck(vaddr) paddr = AddressTranslation(vaddr)
  word = MemoryLoad(paddr, WORD) 
 GR[rd] = word</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ld.w rd, rj, si12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>st</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h001010] &amp; op_25_22_d[4'h0110]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vaddr = GR[rj] + SignExtend(si12, 32)
  AddressComplianceCheck(vaddr) 
 paddr = AddressTranslation(vaddr)
  MemoryStore(GR[rd][31:0], paddr, WORD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>st.w rd, rj, si12</t>
   </si>
   <si>
     <t>jirl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">op_31_26_d[6'h010011] </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>offs[15:0]+5’rj+5‘rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GR[rd] = PC + 4 
 PC = GR[rj] + SignExtend({offs16, 2'b0}, 32)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jirl rd, rj, offs16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h010100]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>offs[15:0]+offs[25:16]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PC = PC + SignExtend({offs26, 2'b0}, 32)</t>
   </si>
   <si>
     <t>b offs26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h010101]</t>
@@ -300,31 +300,31 @@
   <si>
     <t>GR[1] = PC + 4 
 PC = PC + SignExtend({offs26, 2'b0}, 32)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bl offs26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>beq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h010110]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if GR[rj]==GR[rd] : 
 PC = PC + SignExtend({offs16, 2'b0}, 32)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>beq rj, rd, offs16</t>
   </si>
   <si>
     <t>bne</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h010111]</t>
@@ -332,90 +332,90 @@
   <si>
     <t>if GR[rj]！=GR[rd] : 
 PC = PC + SignExtend({offs16, 2'b0}, 33)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bne rj, rd, offs16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lu12i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>op_31_26_d[6'h000101]&amp;op_31_d[1'h0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20'si+5‘rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GR[rd]={si20,12'b0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lu12i.w rd,si20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B有符号字节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H有符号半字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>W有符号字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加U无符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>alu_op</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>load_op</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src1_is_pc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src2_is_imm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>res_from_mem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dst_is_r1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gr_we</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src_reg_is_rd</t>
   </si>
   <si>
     <t>need_si20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src2_is_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给link用的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -442,7 +442,7 @@
       <t>(GR[rj], ui5) 
 GR[rd] = tmp[31:0]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -469,7 +469,7 @@
       <t>(GR[rj], ui5) 
 GR[rd] = tmp[31:1]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -496,7 +496,7 @@
       <t>(GR[rj], ui5) 
 GR[rd] = tmp[31:2]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,25 +536,18 @@
   </si>
   <si>
     <t>服务lu12i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sltw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,29 +645,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,8 +953,8 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1060,20 +1053,20 @@
         <v>4</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1092,20 +1085,20 @@
         <v>8</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1124,20 +1117,20 @@
         <v>13</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1156,20 +1149,20 @@
         <v>17</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1188,20 +1181,20 @@
         <v>21</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1220,20 +1213,20 @@
         <v>25</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1252,20 +1245,20 @@
         <v>29</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1284,20 +1277,20 @@
         <v>33</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1315,25 +1308,25 @@
       <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1351,23 +1344,23 @@
       <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1385,25 +1378,25 @@
       <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12">
-        <v>1</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1422,22 +1415,22 @@
         <v>48</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12">
-        <v>1</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12">
-        <v>1</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1456,24 +1449,24 @@
         <v>52</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12">
-        <v>1</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1492,22 +1485,22 @@
         <v>56</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12">
-        <v>1</v>
-      </c>
-      <c r="N16" s="12">
-        <v>1</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1526,24 +1519,24 @@
         <v>61</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12">
-        <v>1</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1564,16 +1557,16 @@
         <v>66</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1592,24 +1585,24 @@
         <v>70</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
-        <v>1</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12">
-        <v>1</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1630,18 +1623,18 @@
         <v>74</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12">
-        <v>1</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1660,18 +1653,18 @@
         <v>78</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12">
-        <v>1</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1690,22 +1683,22 @@
         <v>83</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
-        <v>1</v>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12">
-        <v>1</v>
-      </c>
-      <c r="O22" s="12">
-        <v>1</v>
-      </c>
-      <c r="P22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
+        <v>1</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
+        <v>1</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1811,7 +1804,7 @@
   <mergeCells count="1">
     <mergeCell ref="F11:F12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exp6_truthtable.xlsx
+++ b/exp6_truthtable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Learn\24Summer\Lxb\StarryCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DF288-1B26-4A28-8487-5B83F1794639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A48D34-82BD-45E0-8108-792ACA91EE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,9 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
